--- a/fileingest/media/files/QuarterlyFinance_Q22021.xlsx
+++ b/fileingest/media/files/QuarterlyFinance_Q22021.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\TestFileRules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90255825-0DFA-4BC8-8E7B-5DB91A2CB933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0EA42-8C94-46BF-85A7-E7C5242C6533}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data2" sheetId="3" r:id="rId2"/>
-    <sheet name="Data3" sheetId="4" r:id="rId3"/>
+    <sheet name="SheetA" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetB" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,24 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>col13</t>
-  </si>
-  <si>
-    <t>col14</t>
-  </si>
-  <si>
-    <t>col15</t>
-  </si>
-  <si>
-    <t>col10</t>
-  </si>
-  <si>
-    <t>col11</t>
-  </si>
-  <si>
-    <t>col12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>colA</t>
+  </si>
+  <si>
+    <t>colB</t>
+  </si>
+  <si>
+    <t>colC</t>
+  </si>
+  <si>
+    <t>colD</t>
+  </si>
+  <si>
+    <t>colE</t>
+  </si>
+  <si>
+    <t>colF</t>
   </si>
 </sst>
 </file>
@@ -370,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,55 +419,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>46</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2880C-4039-4291-94B6-524B169D49C3}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,28 +437,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>